--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\WDAgile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26668B9B-1881-49FC-863D-8A1706B38ED4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635D73D2-EDE3-49F0-A587-AAB23638F3CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1710" windowWidth="21600" windowHeight="11265" activeTab="2" xr2:uid="{DE5CCEB3-EAB9-436E-92A8-C7D26EC5A3BB}"/>
+    <workbookView xWindow="1710" yWindow="1710" windowWidth="21600" windowHeight="11265" firstSheet="1" activeTab="4" xr2:uid="{DE5CCEB3-EAB9-436E-92A8-C7D26EC5A3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
   <si>
     <t>WD Agile Test Plan</t>
   </si>
@@ -184,6 +184,86 @@
   </si>
   <si>
     <t>KB-12</t>
+  </si>
+  <si>
+    <t>Projects in WD starting with "Scrum",
+Scrum config completed,
+Login to WD tenant WCP-\enabled</t>
+  </si>
+  <si>
+    <t>Refresh Team list</t>
+  </si>
+  <si>
+    <t>Defined scrum teams are listed in the sidebar</t>
+  </si>
+  <si>
+    <t>Team list is loaded</t>
+  </si>
+  <si>
+    <t>Push "refresh team list" button</t>
+  </si>
+  <si>
+    <t>Load team</t>
+  </si>
+  <si>
+    <t>Select a team on the scrum list</t>
+  </si>
+  <si>
+    <t>Team name is shown
+New task and Refresh buttons are available
+Progress bar is shown
+Sprint list is shown (default to current)
+Tasks are loaded in Board
+Column summaries are updated</t>
+  </si>
+  <si>
+    <t>Move sprint</t>
+  </si>
+  <si>
+    <t>SB-1</t>
+  </si>
+  <si>
+    <t>SB-2</t>
+  </si>
+  <si>
+    <t>SB-3</t>
+  </si>
+  <si>
+    <t>SB-4</t>
+  </si>
+  <si>
+    <t>SB-5</t>
+  </si>
+  <si>
+    <t>SB-6</t>
+  </si>
+  <si>
+    <t>SB-7</t>
+  </si>
+  <si>
+    <t>SB-8</t>
+  </si>
+  <si>
+    <t>SB-9</t>
+  </si>
+  <si>
+    <t>SB-10</t>
+  </si>
+  <si>
+    <t>SB-11</t>
+  </si>
+  <si>
+    <t>SB-12</t>
+  </si>
+  <si>
+    <t>SB-13</t>
+  </si>
+  <si>
+    <t>Task is moved to a new sprint</t>
+  </si>
+  <si>
+    <t>Available resources are shown,
+new assignment is persisted</t>
   </si>
 </sst>
 </file>
@@ -635,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D09A9B-C832-485D-B87B-E1166CED9810}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,14 +971,266 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315D1596-78E1-4871-89B1-D07F51DB8F63}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestPlan.xlsx
+++ b/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web\WDAgile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635D73D2-EDE3-49F0-A587-AAB23638F3CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E292265-F652-4B92-9606-EDB53C762BE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1710" windowWidth="21600" windowHeight="11265" firstSheet="1" activeTab="4" xr2:uid="{DE5CCEB3-EAB9-436E-92A8-C7D26EC5A3BB}"/>
+    <workbookView xWindow="0" yWindow="1510" windowWidth="12630" windowHeight="7970" firstSheet="1" activeTab="2" xr2:uid="{DE5CCEB3-EAB9-436E-92A8-C7D26EC5A3BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>WD Agile Test Plan</t>
   </si>
@@ -265,12 +265,64 @@
     <t>Available resources are shown,
 new assignment is persisted</t>
   </si>
+  <si>
+    <t>Should the effort load here? Is there an effort hide or reset?</t>
+  </si>
+  <si>
+    <t>Drag task - vertical</t>
+  </si>
+  <si>
+    <t>Drag task - horizontal</t>
+  </si>
+  <si>
+    <t>WD is updated (percent complete &amp; start/end date &amp; order)
+Order is based on drop location</t>
+  </si>
+  <si>
+    <t>WD is updated (order only)
+Order is based on drop location</t>
+  </si>
+  <si>
+    <t>KB-13</t>
+  </si>
+  <si>
+    <t>KB-14</t>
+  </si>
+  <si>
+    <t>Click Edit button on task
+Edit field value
+Click Save button</t>
+  </si>
+  <si>
+    <t>Form appears
+Workday is updated</t>
+  </si>
+  <si>
+    <t>Click Edit button on task
+Click add resource button
+Click Save button</t>
+  </si>
+  <si>
+    <t>Form appears
+Resource is shown
+Workday is updated</t>
+  </si>
+  <si>
+    <t>Click "Add new Task" button
+Click refresh button</t>
+  </si>
+  <si>
+    <t>New task appears</t>
+  </si>
+  <si>
+    <t>Navigate New Project</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +339,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -312,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -321,6 +380,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D09A9B-C832-485D-B87B-E1166CED9810}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -753,207 +819,265 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -973,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315D1596-78E1-4871-89B1-D07F51DB8F63}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,62 +1134,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
